--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/505-Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy505-spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198634DA-1D72-004E-AF97-76384821F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C259AB-85D9-8E4A-99C4-DDC72D2EF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="740" windowWidth="27640" windowHeight="16760" xr2:uid="{F61C7B43-8A1A-BA4A-921F-094419EF5D50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -75,19 +75,28 @@
   </si>
   <si>
     <t>No Speaker - Spring Break</t>
+  </si>
+  <si>
+    <t>Jaclyn Siegel, Postdoctoal Researcher, San Diego State University</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,7 +440,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:D14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +488,9 @@
       <c r="B4" s="1">
         <v>44971</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -563,6 +576,9 @@
       <c r="B12" s="1">
         <v>45027</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -571,6 +587,9 @@
       <c r="B13" s="1">
         <v>45034</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -578,6 +597,9 @@
       </c>
       <c r="B14" s="1">
         <v>45041</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy505-spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C259AB-85D9-8E4A-99C4-DDC72D2EF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9B428-130A-1B45-A364-F095665C058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="740" windowWidth="27640" windowHeight="16760" xr2:uid="{F61C7B43-8A1A-BA4A-921F-094419EF5D50}"/>
+    <workbookView xWindow="2480" yWindow="4660" windowWidth="27640" windowHeight="16760" xr2:uid="{F61C7B43-8A1A-BA4A-921F-094419EF5D50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -78,13 +78,16 @@
   </si>
   <si>
     <t>Jaclyn Siegel, Postdoctoal Researcher, San Diego State University</t>
+  </si>
+  <si>
+    <t>[{{&lt; fa book-open-reader &gt;}}](/speakers/01-week-speaker.html)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +99,12 @@
       <sz val="12"/>
       <color rgb="FF343A40"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -119,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +450,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,6 +479,9 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
